--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Hcrt</t>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1178916666666667</v>
+        <v>0.1929206666666667</v>
       </c>
       <c r="H2">
-        <v>0.353675</v>
+        <v>0.578762</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9049887103533253</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9049887103533253</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1525796666666667</v>
+        <v>0.1991803333333333</v>
       </c>
       <c r="N2">
-        <v>0.457739</v>
+        <v>0.597541</v>
       </c>
       <c r="O2">
-        <v>0.2865682200571272</v>
+        <v>0.4922665899964288</v>
       </c>
       <c r="P2">
-        <v>0.3709112684376299</v>
+        <v>0.5074072124153813</v>
       </c>
       <c r="Q2">
-        <v>0.01798787120277778</v>
+        <v>0.03842600269355555</v>
       </c>
       <c r="R2">
-        <v>0.161890840825</v>
+        <v>0.345834024242</v>
       </c>
       <c r="S2">
-        <v>0.2865682200571272</v>
+        <v>0.4454957064308973</v>
       </c>
       <c r="T2">
-        <v>0.3709112684376299</v>
+        <v>0.4591977987877717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,46 +599,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1178916666666667</v>
+        <v>0.1929206666666667</v>
       </c>
       <c r="H3">
-        <v>0.353675</v>
+        <v>0.578762</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9049887103533253</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9049887103533253</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01663833333333333</v>
+        <v>0.1525796666666667</v>
       </c>
       <c r="N3">
-        <v>0.049915</v>
+        <v>0.457739</v>
       </c>
       <c r="O3">
-        <v>0.03124936416637321</v>
+        <v>0.3770948213400843</v>
       </c>
       <c r="P3">
-        <v>0.04044670863541078</v>
+        <v>0.3886931106046351</v>
       </c>
       <c r="Q3">
-        <v>0.001961520847222223</v>
+        <v>0.02943577101311111</v>
       </c>
       <c r="R3">
-        <v>0.017653687625</v>
+        <v>0.264921939118</v>
       </c>
       <c r="S3">
-        <v>0.03124936416637321</v>
+        <v>0.3412665560454805</v>
       </c>
       <c r="T3">
-        <v>0.04044670863541078</v>
+        <v>0.3517628768893111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,356 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1178916666666667</v>
+        <v>0.1929206666666667</v>
       </c>
       <c r="H4">
-        <v>0.353675</v>
+        <v>0.578762</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9049887103533253</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9049887103533253</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01663833333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.049915</v>
+      </c>
+      <c r="O4">
+        <v>0.04112100565429275</v>
+      </c>
+      <c r="P4">
+        <v>0.04238576266350554</v>
+      </c>
+      <c r="Q4">
+        <v>0.003209878358888889</v>
+      </c>
+      <c r="R4">
+        <v>0.02888890523</v>
+      </c>
+      <c r="S4">
+        <v>0.03721404587551019</v>
+      </c>
+      <c r="T4">
+        <v>0.038358636690188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1929206666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.578762</v>
+      </c>
+      <c r="I5">
+        <v>0.9049887103533253</v>
+      </c>
+      <c r="J5">
+        <v>0.9049887103533253</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.0362205</v>
+      </c>
+      <c r="N5">
+        <v>0.07244100000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.08951758300919427</v>
+      </c>
+      <c r="P5">
+        <v>0.0615139143164781</v>
+      </c>
+      <c r="Q5">
+        <v>0.006987683007</v>
+      </c>
+      <c r="R5">
+        <v>0.041926098042</v>
+      </c>
+      <c r="S5">
+        <v>0.08101240200143746</v>
+      </c>
+      <c r="T5">
+        <v>0.05566939798605447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.020254</v>
+      </c>
+      <c r="H6">
+        <v>0.060762</v>
+      </c>
+      <c r="I6">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="J6">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.3632195</v>
-      </c>
-      <c r="N4">
-        <v>0.7264389999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.6821824157764995</v>
-      </c>
-      <c r="P4">
-        <v>0.5886420229269592</v>
-      </c>
-      <c r="Q4">
-        <v>0.04282055222083334</v>
-      </c>
-      <c r="R4">
-        <v>0.256923313325</v>
-      </c>
-      <c r="S4">
-        <v>0.6821824157764995</v>
-      </c>
-      <c r="T4">
-        <v>0.5886420229269592</v>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1991803333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.597541</v>
+      </c>
+      <c r="O6">
+        <v>0.4922665899964288</v>
+      </c>
+      <c r="P6">
+        <v>0.5074072124153813</v>
+      </c>
+      <c r="Q6">
+        <v>0.004034198471333333</v>
+      </c>
+      <c r="R6">
+        <v>0.036307786242</v>
+      </c>
+      <c r="S6">
+        <v>0.04677088356553156</v>
+      </c>
+      <c r="T6">
+        <v>0.0482094136276096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.020254</v>
+      </c>
+      <c r="H7">
+        <v>0.060762</v>
+      </c>
+      <c r="I7">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="J7">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1525796666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.457739</v>
+      </c>
+      <c r="O7">
+        <v>0.3770948213400843</v>
+      </c>
+      <c r="P7">
+        <v>0.3886931106046351</v>
+      </c>
+      <c r="Q7">
+        <v>0.003090348568666666</v>
+      </c>
+      <c r="R7">
+        <v>0.027813137118</v>
+      </c>
+      <c r="S7">
+        <v>0.0358282652946038</v>
+      </c>
+      <c r="T7">
+        <v>0.03693023371532395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.020254</v>
+      </c>
+      <c r="H8">
+        <v>0.060762</v>
+      </c>
+      <c r="I8">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="J8">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01663833333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.049915</v>
+      </c>
+      <c r="O8">
+        <v>0.04112100565429275</v>
+      </c>
+      <c r="P8">
+        <v>0.04238576266350554</v>
+      </c>
+      <c r="Q8">
+        <v>0.0003369928033333333</v>
+      </c>
+      <c r="R8">
+        <v>0.00303293523</v>
+      </c>
+      <c r="S8">
+        <v>0.003906959778782557</v>
+      </c>
+      <c r="T8">
+        <v>0.004027125973317535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.020254</v>
+      </c>
+      <c r="H9">
+        <v>0.060762</v>
+      </c>
+      <c r="I9">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="J9">
+        <v>0.09501128964667471</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.0362205</v>
+      </c>
+      <c r="N9">
+        <v>0.07244100000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.08951758300919427</v>
+      </c>
+      <c r="P9">
+        <v>0.0615139143164781</v>
+      </c>
+      <c r="Q9">
+        <v>0.000733610007</v>
+      </c>
+      <c r="R9">
+        <v>0.004401660042</v>
+      </c>
+      <c r="S9">
+        <v>0.008505181007756803</v>
+      </c>
+      <c r="T9">
+        <v>0.005844516330423631</v>
       </c>
     </row>
   </sheetData>
